--- a/prix/plasson.xlsx
+++ b/prix/plasson.xlsx
@@ -5,10 +5,10 @@
   <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\raccords-plomberie\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\raccords-plomberie\prix\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{A1789411-1C0E-4C28-B44F-FEF689ADF2E7}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{779F4F5D-A01D-4CDC-8D58-9F80F183325B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="22932" yWindow="-108" windowWidth="19416" windowHeight="11016" xr2:uid="{2B4B34BF-6B13-4E9C-8318-8F04E76BBCB4}"/>
   </bookViews>
@@ -36,53 +36,23 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="33" uniqueCount="31">
-  <si>
-    <t>N° d'article</t>
-  </si>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="44" uniqueCount="37">
   <si>
     <t>Dénomination</t>
   </si>
   <si>
-    <t>Prix de revient fourn.</t>
-  </si>
-  <si>
-    <t>N° d'art. fournisseur</t>
-  </si>
-  <si>
-    <t>Prix 1</t>
-  </si>
-  <si>
-    <t>Incl. Prix 4</t>
-  </si>
-  <si>
-    <t>Prix d'achat</t>
-  </si>
-  <si>
-    <t>Prix de rev.</t>
-  </si>
-  <si>
-    <t>Disponible</t>
-  </si>
-  <si>
     <t>43040702</t>
   </si>
   <si>
     <t>Manchon PE S1 -25x25</t>
   </si>
   <si>
-    <t>PES1M2525</t>
-  </si>
-  <si>
     <t>43040703</t>
   </si>
   <si>
     <t>Manchon PE S1 -32X32</t>
   </si>
   <si>
-    <t>PES1M3232</t>
-  </si>
-  <si>
     <t>43040705</t>
   </si>
   <si>
@@ -101,34 +71,82 @@
     <t>Raccord PE-S1 25x3/4M</t>
   </si>
   <si>
-    <t>PES1M25034</t>
-  </si>
-  <si>
     <t>43040710</t>
   </si>
   <si>
     <t>Raccord PE-S1 32x4/4M</t>
   </si>
   <si>
-    <t>PES1M32044</t>
-  </si>
-  <si>
     <t>43040715</t>
   </si>
   <si>
     <t>Raccord PE-S1 25x3/4F</t>
   </si>
   <si>
-    <t>PES1F25034</t>
-  </si>
-  <si>
     <t>43040717</t>
   </si>
   <si>
     <t>Raccord PE-S1 32x4/4F</t>
   </si>
   <si>
-    <t>PES1F32044</t>
+    <t>path</t>
+  </si>
+  <si>
+    <t>Denomination</t>
+  </si>
+  <si>
+    <t>taille</t>
+  </si>
+  <si>
+    <t>prix_tvac</t>
+  </si>
+  <si>
+    <t>Article</t>
+  </si>
+  <si>
+    <t>25-25</t>
+  </si>
+  <si>
+    <t>32-32</t>
+  </si>
+  <si>
+    <t>25-3/4M</t>
+  </si>
+  <si>
+    <t>32-4/4M</t>
+  </si>
+  <si>
+    <t>25-3/4F</t>
+  </si>
+  <si>
+    <t>32-4/4F</t>
+  </si>
+  <si>
+    <t>acc-tube-polyethylene/plasson/coude.png</t>
+  </si>
+  <si>
+    <t>acc-tube-polyethylene/plasson/manchon.png</t>
+  </si>
+  <si>
+    <t>acc-tube-polyethylene/plasson/rac-femelle.png</t>
+  </si>
+  <si>
+    <t>acc-tube-polyethylene/plasson/rac-male.png</t>
+  </si>
+  <si>
+    <t>Té PE S1 -25</t>
+  </si>
+  <si>
+    <t>Té PE S1 -32</t>
+  </si>
+  <si>
+    <t>43040722</t>
+  </si>
+  <si>
+    <t>43040723</t>
+  </si>
+  <si>
+    <t>acc-tube-polyethylene/plasson/te.png</t>
   </si>
 </sst>
 </file>
@@ -138,8 +156,16 @@
   <numFmts count="1">
     <numFmt numFmtId="164" formatCode="#,##0.000"/>
   </numFmts>
-  <fonts count="1" x14ac:knownFonts="1">
+  <fonts count="2" x14ac:knownFonts="1">
     <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Aptos Narrow"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
       <sz val="11"/>
       <color theme="1"/>
       <name val="Aptos Narrow"/>
@@ -167,7 +193,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="5">
+  <cellXfs count="9">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
       <alignment vertical="top"/>
@@ -178,7 +204,19 @@
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
       <alignment vertical="top"/>
     </xf>
-    <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1"/>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="49" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="4" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -513,280 +551,217 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{1F6650E8-1B8F-411F-B025-9B7A832F9320}">
-  <dimension ref="A1:I9"/>
+  <dimension ref="A1:N11"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="F9" sqref="F9"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="22.77734375" style="1" customWidth="1"/>
-    <col min="2" max="2" width="51.77734375" style="1" customWidth="1"/>
-    <col min="3" max="3" width="13.77734375" style="2" customWidth="1"/>
-    <col min="4" max="4" width="23.77734375" style="1" customWidth="1"/>
-    <col min="5" max="6" width="11.77734375" style="2" customWidth="1"/>
-    <col min="7" max="8" width="21.77734375" style="2" customWidth="1"/>
-    <col min="9" max="9" width="26.77734375" style="3" customWidth="1"/>
+    <col min="1" max="1" width="39.77734375" style="6" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="20.21875" style="6" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="13.88671875" style="6" bestFit="1" customWidth="1"/>
+    <col min="4" max="5" width="11.5546875" style="6"/>
+    <col min="6" max="6" width="22.77734375" style="1" customWidth="1"/>
+    <col min="7" max="7" width="51.77734375" style="1" customWidth="1"/>
+    <col min="8" max="8" width="13.77734375" style="2" customWidth="1"/>
+    <col min="9" max="9" width="23.77734375" style="1" customWidth="1"/>
+    <col min="10" max="11" width="11.77734375" style="2" customWidth="1"/>
+    <col min="12" max="13" width="21.77734375" style="2" customWidth="1"/>
+    <col min="14" max="14" width="26.77734375" style="3" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:9" s="4" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A1" s="1" t="s">
+    <row r="1" spans="1:14" s="4" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A1" s="5" t="s">
+        <v>17</v>
+      </c>
+      <c r="B1" s="5" t="s">
+        <v>18</v>
+      </c>
+      <c r="C1" s="5" t="s">
+        <v>19</v>
+      </c>
+      <c r="D1" s="5" t="s">
+        <v>20</v>
+      </c>
+      <c r="E1" s="5" t="s">
+        <v>21</v>
+      </c>
+      <c r="F1" s="1"/>
+      <c r="G1" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="1" t="s">
+      <c r="H1" s="1"/>
+      <c r="I1" s="1"/>
+      <c r="J1" s="1"/>
+      <c r="K1" s="1"/>
+      <c r="L1" s="1"/>
+      <c r="M1" s="1"/>
+      <c r="N1" s="1"/>
+    </row>
+    <row r="2" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="A2" s="6" t="s">
+        <v>29</v>
+      </c>
+      <c r="B2" s="7" t="s">
+        <v>2</v>
+      </c>
+      <c r="C2" s="6" t="s">
+        <v>22</v>
+      </c>
+      <c r="D2" s="8">
+        <v>10.72</v>
+      </c>
+      <c r="E2" s="7" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="1" t="s">
-        <v>2</v>
-      </c>
-      <c r="D1" s="1" t="s">
+    </row>
+    <row r="3" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="A3" s="6" t="s">
+        <v>29</v>
+      </c>
+      <c r="B3" s="7" t="s">
+        <v>4</v>
+      </c>
+      <c r="C3" s="6" t="s">
+        <v>23</v>
+      </c>
+      <c r="D3" s="8">
+        <v>13.450000000000001</v>
+      </c>
+      <c r="E3" s="7" t="s">
         <v>3</v>
       </c>
-      <c r="E1" s="1" t="s">
-        <v>4</v>
-      </c>
-      <c r="F1" s="1" t="s">
+    </row>
+    <row r="4" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="A4" s="6" t="s">
+        <v>28</v>
+      </c>
+      <c r="B4" s="7" t="s">
+        <v>6</v>
+      </c>
+      <c r="C4" s="6" t="s">
+        <v>22</v>
+      </c>
+      <c r="D4" s="8">
+        <v>10.72</v>
+      </c>
+      <c r="E4" s="7" t="s">
         <v>5</v>
       </c>
-      <c r="G1" s="1" t="s">
-        <v>6</v>
-      </c>
-      <c r="H1" s="1" t="s">
+    </row>
+    <row r="5" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="A5" s="6" t="s">
+        <v>28</v>
+      </c>
+      <c r="B5" s="7" t="s">
+        <v>8</v>
+      </c>
+      <c r="C5" s="6" t="s">
+        <v>23</v>
+      </c>
+      <c r="D5" s="8">
+        <v>10.72</v>
+      </c>
+      <c r="E5" s="7" t="s">
         <v>7</v>
       </c>
-      <c r="I1" s="1" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="2" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A2" s="1" t="s">
+    </row>
+    <row r="6" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="A6" s="6" t="s">
+        <v>31</v>
+      </c>
+      <c r="B6" s="7" t="s">
+        <v>10</v>
+      </c>
+      <c r="C6" s="6" t="s">
+        <v>24</v>
+      </c>
+      <c r="D6" s="8">
+        <v>6.8</v>
+      </c>
+      <c r="E6" s="7" t="s">
         <v>9</v>
       </c>
-      <c r="B2" s="1" t="s">
-        <v>10</v>
-      </c>
-      <c r="C2" s="2">
-        <v>5.21</v>
-      </c>
-      <c r="D2" s="1" t="s">
+    </row>
+    <row r="7" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="A7" s="6" t="s">
+        <v>31</v>
+      </c>
+      <c r="B7" s="7" t="s">
+        <v>12</v>
+      </c>
+      <c r="C7" s="6" t="s">
+        <v>25</v>
+      </c>
+      <c r="D7" s="8">
+        <v>8.2900000000000009</v>
+      </c>
+      <c r="E7" s="7" t="s">
         <v>11</v>
       </c>
-      <c r="E2" s="2">
-        <v>8.86</v>
-      </c>
-      <c r="F2" s="2">
-        <v>0</v>
-      </c>
-      <c r="G2" s="2">
-        <v>13.030000000000001</v>
-      </c>
-      <c r="H2" s="2">
-        <v>5.21</v>
-      </c>
-      <c r="I2" s="3">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="3" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A3" s="1" t="s">
-        <v>12</v>
-      </c>
-      <c r="B3" s="1" t="s">
+    </row>
+    <row r="8" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="A8" s="6" t="s">
+        <v>30</v>
+      </c>
+      <c r="B8" s="7" t="s">
+        <v>14</v>
+      </c>
+      <c r="C8" s="6" t="s">
+        <v>26</v>
+      </c>
+      <c r="D8" s="8">
+        <v>6.73</v>
+      </c>
+      <c r="E8" s="7" t="s">
         <v>13</v>
       </c>
-      <c r="C3" s="2">
-        <v>6.5200000000000005</v>
-      </c>
-      <c r="D3" s="1" t="s">
-        <v>14</v>
-      </c>
-      <c r="E3" s="2">
-        <v>11.120000000000001</v>
-      </c>
-      <c r="F3" s="2">
-        <v>0</v>
-      </c>
-      <c r="G3" s="2">
-        <v>16.3</v>
-      </c>
-      <c r="H3" s="2">
-        <v>6.5200000000000005</v>
-      </c>
-      <c r="I3" s="3">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="4" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A4" s="1" t="s">
+    </row>
+    <row r="9" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="A9" s="6" t="s">
+        <v>30</v>
+      </c>
+      <c r="B9" s="7" t="s">
+        <v>16</v>
+      </c>
+      <c r="C9" s="6" t="s">
+        <v>27</v>
+      </c>
+      <c r="D9" s="8">
+        <v>8.39</v>
+      </c>
+      <c r="E9" s="7" t="s">
         <v>15</v>
       </c>
-      <c r="B4" s="1" t="s">
-        <v>16</v>
-      </c>
-      <c r="C4" s="2">
-        <v>5.21</v>
-      </c>
-      <c r="D4" s="1" t="s">
-        <v>11</v>
-      </c>
-      <c r="E4" s="2">
-        <v>8.86</v>
-      </c>
-      <c r="F4" s="2">
-        <v>0</v>
-      </c>
-      <c r="G4" s="2">
-        <v>13.030000000000001</v>
-      </c>
-      <c r="H4" s="2">
-        <v>5.21</v>
-      </c>
-      <c r="I4" s="3">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="5" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A5" s="1" t="s">
-        <v>17</v>
-      </c>
-      <c r="B5" s="1" t="s">
-        <v>18</v>
-      </c>
-      <c r="C5" s="2">
-        <v>5.21</v>
-      </c>
-      <c r="D5" s="1" t="s">
-        <v>11</v>
-      </c>
-      <c r="E5" s="2">
-        <v>8.86</v>
-      </c>
-      <c r="F5" s="2">
-        <v>0</v>
-      </c>
-      <c r="G5" s="2">
-        <v>13.030000000000001</v>
-      </c>
-      <c r="H5" s="2">
-        <v>5.21</v>
-      </c>
-      <c r="I5" s="3">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="6" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A6" s="1" t="s">
-        <v>19</v>
-      </c>
-      <c r="B6" s="1" t="s">
-        <v>20</v>
-      </c>
-      <c r="C6" s="2">
-        <v>3.27</v>
-      </c>
-      <c r="D6" s="1" t="s">
-        <v>21</v>
-      </c>
-      <c r="E6" s="2">
-        <v>5.62</v>
-      </c>
-      <c r="F6" s="2">
-        <v>0</v>
-      </c>
-      <c r="G6" s="2">
-        <v>8.17</v>
-      </c>
-      <c r="H6" s="2">
-        <v>3.27</v>
-      </c>
-      <c r="I6" s="3">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="7" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A7" s="1" t="s">
-        <v>22</v>
-      </c>
-      <c r="B7" s="1" t="s">
-        <v>23</v>
-      </c>
-      <c r="C7" s="2">
-        <v>4.1500000000000004</v>
-      </c>
-      <c r="D7" s="1" t="s">
-        <v>24</v>
-      </c>
-      <c r="E7" s="2">
-        <v>6.8500000000000005</v>
-      </c>
-      <c r="F7" s="2">
-        <v>0</v>
-      </c>
-      <c r="G7" s="2">
-        <v>10.370000000000001</v>
-      </c>
-      <c r="H7" s="2">
-        <v>4.1500000000000004</v>
-      </c>
-      <c r="I7" s="3">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="8" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A8" s="1" t="s">
+    </row>
+    <row r="10" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="A10" s="6" t="s">
+        <v>36</v>
+      </c>
+      <c r="B10" s="7" t="s">
+        <v>32</v>
+      </c>
+      <c r="C10" s="6">
         <v>25</v>
       </c>
-      <c r="B8" s="1" t="s">
-        <v>26</v>
-      </c>
-      <c r="C8" s="2">
-        <v>3.37</v>
-      </c>
-      <c r="D8" s="1" t="s">
-        <v>27</v>
-      </c>
-      <c r="E8" s="2">
-        <v>5.5600000000000005</v>
-      </c>
-      <c r="F8" s="2">
-        <v>0</v>
-      </c>
-      <c r="G8" s="2">
-        <v>8.43</v>
-      </c>
-      <c r="H8" s="2">
-        <v>3.37</v>
-      </c>
-      <c r="I8" s="3">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="9" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A9" s="1" t="s">
-        <v>28</v>
-      </c>
-      <c r="B9" s="1" t="s">
-        <v>29</v>
-      </c>
-      <c r="C9" s="2">
-        <v>4.2</v>
-      </c>
-      <c r="D9" s="1" t="s">
-        <v>30</v>
-      </c>
-      <c r="E9" s="2">
-        <v>6.93</v>
-      </c>
-      <c r="F9" s="2">
-        <v>0</v>
-      </c>
-      <c r="G9" s="2">
-        <v>10.5</v>
-      </c>
-      <c r="H9" s="2">
-        <v>4.2</v>
-      </c>
-      <c r="I9" s="3">
-        <v>8</v>
+      <c r="E10" s="7" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="11" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="A11" s="6" t="s">
+        <v>36</v>
+      </c>
+      <c r="B11" s="7" t="s">
+        <v>33</v>
+      </c>
+      <c r="C11" s="6">
+        <v>32</v>
+      </c>
+      <c r="E11" s="7" t="s">
+        <v>35</v>
       </c>
     </row>
   </sheetData>
